--- a/Project/DEFECT_REPORT.xlsx
+++ b/Project/DEFECT_REPORT.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AMIT SINGH\OneDrive\Desktop\TOPS\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{352E22FE-C3FD-48CB-AF09-2E08568C7881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{491ED990-916F-4E67-8BE5-CAFB8F5A99EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="266">
   <si>
     <t>TC ID</t>
   </si>
@@ -884,9 +885,6 @@
     <t>TC 120</t>
   </si>
   <si>
-    <t>Forget login Info button</t>
-  </si>
-  <si>
     <t>Click Forget login button</t>
   </si>
   <si>
@@ -909,12 +907,83 @@
     <t>https://screenrec.com/share/
 Dwu4TW8Svn</t>
   </si>
+  <si>
+    <t>Defect ID</t>
+  </si>
+  <si>
+    <t>Defect Type</t>
+  </si>
+  <si>
+    <t>Defect Severity</t>
+  </si>
+  <si>
+    <t>Defect Priority</t>
+  </si>
+  <si>
+    <t>Tester Name</t>
+  </si>
+  <si>
+    <t>Critical</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Functionality
+defects</t>
+  </si>
+  <si>
+    <t>Forget login Info 
+button</t>
+  </si>
+  <si>
+    <t>TC 21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Customer Login after some
+time </t>
+  </si>
+  <si>
+    <t xml:space="preserve">User is on the Dashboard 
+</t>
+  </si>
+  <si>
+    <t>Log in the User's ID</t>
+  </si>
+  <si>
+    <t>Username- as0905
+Password- 0987654321</t>
+  </si>
+  <si>
+    <t>The user session should remain active until the user either logs out manually or closes the application</t>
+  </si>
+  <si>
+    <t>After logging in, the user is auto- matically logged out after a short period of Inactivity upon trying to log in again using the correct user-
+name and password, the message
+"The Username and Password
+could not be verified" is displayed
+, even though credentials are valid</t>
+  </si>
+  <si>
+    <t>Non- 
+Functionality
+defects</t>
+  </si>
+  <si>
+    <t>Lpw</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
+  <numFmts count="1">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1010,6 +1079,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1025,7 +1102,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1048,17 +1125,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1068,9 +1156,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1091,32 +1176,52 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="43" fontId="2" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -1396,1384 +1501,2090 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K44"/>
+  <dimension ref="A1:P46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="80" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" zoomScale="80" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.21875" customWidth="1"/>
-    <col min="4" max="4" width="30.44140625" customWidth="1"/>
-    <col min="5" max="5" width="27" customWidth="1"/>
-    <col min="6" max="6" width="20.6640625" customWidth="1"/>
-    <col min="7" max="7" width="38.77734375" customWidth="1"/>
-    <col min="8" max="8" width="33.109375" customWidth="1"/>
-    <col min="9" max="9" width="11" customWidth="1"/>
-    <col min="10" max="10" width="31.109375" style="23" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.21875" customWidth="1"/>
+    <col min="5" max="5" width="30.44140625" customWidth="1"/>
+    <col min="6" max="6" width="27" customWidth="1"/>
+    <col min="7" max="7" width="20.6640625" customWidth="1"/>
+    <col min="8" max="8" width="20.6640625" style="29" customWidth="1"/>
+    <col min="9" max="10" width="20.6640625" customWidth="1"/>
+    <col min="11" max="11" width="38.77734375" customWidth="1"/>
+    <col min="12" max="13" width="33.109375" customWidth="1"/>
+    <col min="14" max="14" width="11" customWidth="1"/>
+    <col min="15" max="15" width="31.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="18">
+    <row r="1" spans="1:16" ht="18">
       <c r="A1" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="26" t="s">
+        <v>248</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="M1" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="17" t="s">
+      <c r="O1" s="14" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="54">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:16" ht="54">
+      <c r="A2" s="20">
+        <v>1</v>
+      </c>
+      <c r="B2" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="2">
+      <c r="C2" s="23">
         <v>4</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="27" t="s">
+        <v>255</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="K2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="L2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" s="18" t="s">
+      <c r="M2" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O2" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="5"/>
-    </row>
-    <row r="3" spans="1:11" ht="72">
-      <c r="A3" s="2" t="s">
+      <c r="P2" s="4"/>
+    </row>
+    <row r="3" spans="1:16" ht="72">
+      <c r="A3" s="20">
+        <v>2</v>
+      </c>
+      <c r="B3" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="2">
+      <c r="C3" s="23">
         <v>7</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="F3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="H3" s="27" t="s">
+        <v>255</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="K3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="L3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J3" s="18" t="s">
+      <c r="M3" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O3" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="K3" s="5"/>
-    </row>
-    <row r="4" spans="1:11" ht="72">
-      <c r="A4" s="2" t="s">
+      <c r="P3" s="4"/>
+    </row>
+    <row r="4" spans="1:16" ht="72">
+      <c r="A4" s="20">
+        <v>3</v>
+      </c>
+      <c r="B4" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="2">
+      <c r="C4" s="23">
         <v>8</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="E4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="G4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="H4" s="27" t="s">
+        <v>255</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="K4" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="L4" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="I4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J4" s="18" t="s">
+      <c r="M4" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O4" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="K4" s="5"/>
-    </row>
-    <row r="5" spans="1:11" ht="72">
-      <c r="A5" s="2" t="s">
+      <c r="P4" s="4"/>
+    </row>
+    <row r="5" spans="1:16" ht="72">
+      <c r="A5" s="20">
+        <v>4</v>
+      </c>
+      <c r="B5" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="2">
+      <c r="C5" s="23">
         <v>9</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="E5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="F5" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="G5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="H5" s="27" t="s">
+        <v>255</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="K5" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="L5" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="I5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J5" s="18" t="s">
+      <c r="M5" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O5" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="K5" s="5"/>
-    </row>
-    <row r="6" spans="1:11" ht="164.4" customHeight="1">
-      <c r="A6" s="2" t="s">
+      <c r="P5" s="4"/>
+    </row>
+    <row r="6" spans="1:16" ht="216">
+      <c r="A6" s="20">
+        <v>5</v>
+      </c>
+      <c r="B6" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="B6" s="2">
+      <c r="C6" s="23">
         <v>10</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="D6" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="E6" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="F6" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="G6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="H6" s="27" t="s">
+        <v>255</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="K6" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="L6" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="I6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J6" s="18" t="s">
+      <c r="M6" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O6" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="K6" s="5"/>
-    </row>
-    <row r="7" spans="1:11" ht="90">
-      <c r="A7" s="2" t="s">
+      <c r="P6" s="4"/>
+    </row>
+    <row r="7" spans="1:16" ht="216">
+      <c r="A7" s="20">
+        <v>6</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>257</v>
+      </c>
+      <c r="C7" s="23">
+        <v>11.1</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="H7" s="27" t="s">
+        <v>264</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O7" s="15"/>
+      <c r="P7" s="4"/>
+    </row>
+    <row r="8" spans="1:16" ht="90">
+      <c r="A8" s="20">
+        <v>7</v>
+      </c>
+      <c r="B8" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="B7" s="2">
+      <c r="C8" s="23">
         <v>12.11</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="D8" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="E8" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="F8" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="G8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="H8" s="27" t="s">
+        <v>255</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="K8" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="L8" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="I7" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J7" s="18" t="s">
+      <c r="M8" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O8" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="K7" s="5"/>
-    </row>
-    <row r="8" spans="1:11" ht="90">
-      <c r="A8" s="2" t="s">
+      <c r="P8" s="4"/>
+    </row>
+    <row r="9" spans="1:16" ht="90">
+      <c r="A9" s="20">
+        <v>8</v>
+      </c>
+      <c r="B9" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="B8" s="2">
+      <c r="C9" s="23">
         <v>12.12</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="D9" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="E9" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="F9" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="G9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="H9" s="27" t="s">
+        <v>255</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="K9" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="L9" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="I8" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J8" s="11" t="s">
-        <v>247</v>
-      </c>
-      <c r="K8" s="24"/>
-    </row>
-    <row r="9" spans="1:11" ht="114" customHeight="1">
-      <c r="A9" s="6" t="s">
+      <c r="M9" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O9" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="P9" s="19"/>
+    </row>
+    <row r="10" spans="1:16" ht="144">
+      <c r="A10" s="20">
+        <v>9</v>
+      </c>
+      <c r="B10" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="B9" s="2">
+      <c r="C10" s="23">
         <v>13.3</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="D10" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="E10" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="F10" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="G10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="H10" s="27" t="s">
+        <v>255</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="K10" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="L10" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="I9" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J9" s="19" t="s">
+      <c r="M10" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O10" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="K9" s="5"/>
-    </row>
-    <row r="10" spans="1:11" ht="60.6" customHeight="1">
-      <c r="A10" s="2" t="s">
+      <c r="P10" s="4"/>
+    </row>
+    <row r="11" spans="1:16" ht="72">
+      <c r="A11" s="20">
+        <v>10</v>
+      </c>
+      <c r="B11" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="C11" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="D11" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="E11" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="F11" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="G10" s="4" t="s">
+      <c r="G11" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H11" s="27" t="s">
+        <v>255</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="K11" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="L11" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="I10" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J10" s="19" t="s">
+      <c r="M11" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O11" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="K10" s="5"/>
-    </row>
-    <row r="11" spans="1:11" ht="60.6" customHeight="1">
-      <c r="A11" s="2" t="s">
+      <c r="P11" s="4"/>
+    </row>
+    <row r="12" spans="1:16" ht="72">
+      <c r="A12" s="20">
+        <v>11</v>
+      </c>
+      <c r="B12" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="C12" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="D12" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="E12" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="F12" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="G12" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="H12" s="27" t="s">
+        <v>255</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="K12" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="L12" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="I11" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J11" s="19" t="s">
+      <c r="M12" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O12" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="K11" s="5"/>
-    </row>
-    <row r="12" spans="1:11" ht="60.6" customHeight="1">
-      <c r="A12" s="2" t="s">
+      <c r="P12" s="4"/>
+    </row>
+    <row r="13" spans="1:16" ht="72">
+      <c r="A13" s="20">
+        <v>12</v>
+      </c>
+      <c r="B13" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="C13" s="23" t="s">
         <v>116</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="D13" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="E13" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="F13" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="G13" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="H13" s="27" t="s">
+        <v>255</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="K13" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="H12" s="4" t="s">
+      <c r="L13" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="I12" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J12" s="19" t="s">
+      <c r="M13" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O13" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="K12" s="5"/>
-    </row>
-    <row r="13" spans="1:11" ht="39.6" customHeight="1">
-      <c r="A13" s="2" t="s">
+      <c r="P13" s="4"/>
+    </row>
+    <row r="14" spans="1:16" ht="72">
+      <c r="A14" s="20">
+        <v>13</v>
+      </c>
+      <c r="B14" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="C14" s="23" t="s">
         <v>118</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="D14" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="E14" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="F14" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="F13" s="3"/>
-      <c r="G13" s="4" t="s">
+      <c r="G14" s="2"/>
+      <c r="H14" s="27" t="s">
+        <v>255</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="K14" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="H13" s="4" t="s">
+      <c r="L14" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="I13" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J13" s="18" t="s">
+      <c r="M14" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O14" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="K13" s="5"/>
-    </row>
-    <row r="14" spans="1:11" ht="41.4" customHeight="1">
-      <c r="A14" s="6" t="s">
+      <c r="P14" s="4"/>
+    </row>
+    <row r="15" spans="1:16" ht="54">
+      <c r="A15" s="20">
+        <v>14</v>
+      </c>
+      <c r="B15" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C15" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="D15" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="E15" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="F15" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="G15" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G14" s="4" t="s">
+      <c r="H15" s="27" t="s">
+        <v>255</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="K15" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="H14" s="4" t="s">
+      <c r="L15" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J14" s="20"/>
-      <c r="K14" s="5"/>
-    </row>
-    <row r="15" spans="1:11" ht="288">
-      <c r="A15" s="2" t="s">
+      <c r="M15" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O15" s="17"/>
+      <c r="P15" s="4"/>
+    </row>
+    <row r="16" spans="1:16" ht="288">
+      <c r="A16" s="20">
+        <v>15</v>
+      </c>
+      <c r="B16" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="B15" s="2">
+      <c r="C16" s="23">
         <v>13.4</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="D16" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="E16" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="F16" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="G16" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G15" s="4" t="s">
+      <c r="H16" s="27" t="s">
+        <v>255</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="K16" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="H15" s="4" t="s">
+      <c r="L16" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="I15" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J15" s="19" t="s">
+      <c r="M16" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O16" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="K15" s="5"/>
-    </row>
-    <row r="16" spans="1:11" ht="36">
-      <c r="A16" s="2" t="s">
+      <c r="P16" s="4"/>
+    </row>
+    <row r="17" spans="1:16" ht="36">
+      <c r="A17" s="20">
+        <v>16</v>
+      </c>
+      <c r="B17" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="C17" s="23" t="s">
         <v>123</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="D17" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="E17" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="E16" s="9" t="s">
+      <c r="F17" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9" t="s">
+      <c r="G17" s="7"/>
+      <c r="H17" s="27" t="s">
+        <v>255</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="H16" s="9" t="s">
+      <c r="L17" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="I16" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="J16" s="10" t="s">
+      <c r="M17" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="N17" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="O17" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="K16" s="5"/>
-    </row>
-    <row r="17" spans="1:11" ht="54">
-      <c r="A17" s="2" t="s">
+      <c r="P17" s="4"/>
+    </row>
+    <row r="18" spans="1:16" ht="54">
+      <c r="A18" s="20">
+        <v>17</v>
+      </c>
+      <c r="B18" s="20" t="s">
         <v>130</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="C18" s="23" t="s">
         <v>131</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="D18" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="E18" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="F18" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="F17" s="9" t="s">
+      <c r="G18" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="G17" s="9" t="s">
+      <c r="H18" s="27" t="s">
+        <v>255</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="H17" s="9" t="s">
+      <c r="L18" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="I17" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="J17" s="11" t="s">
+      <c r="M18" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="N18" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="O18" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="K17" s="5"/>
-    </row>
-    <row r="18" spans="1:11" ht="54">
-      <c r="A18" s="2" t="s">
+      <c r="P18" s="4"/>
+    </row>
+    <row r="19" spans="1:16" ht="54">
+      <c r="A19" s="20">
+        <v>18</v>
+      </c>
+      <c r="B19" s="20" t="s">
         <v>138</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="C19" s="23" t="s">
         <v>139</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="D19" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="E19" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="E18" s="9" t="s">
+      <c r="F19" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9" t="s">
+      <c r="G19" s="7"/>
+      <c r="H19" s="27" t="s">
+        <v>255</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="H18" s="9" t="s">
+      <c r="L19" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="I18" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="J18" s="10" t="s">
+      <c r="M19" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="N19" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="O19" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="K18" s="12"/>
-    </row>
-    <row r="19" spans="1:11" ht="54">
-      <c r="A19" s="2" t="s">
+      <c r="P19" s="10"/>
+    </row>
+    <row r="20" spans="1:16" ht="54">
+      <c r="A20" s="20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="20" t="s">
         <v>145</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="C20" s="23" t="s">
         <v>146</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="D20" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="E20" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="E19" s="9" t="s">
+      <c r="F20" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9" t="s">
+      <c r="G20" s="7"/>
+      <c r="H20" s="27" t="s">
+        <v>255</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="H19" s="9" t="s">
+      <c r="L20" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="I19" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="J19" s="19" t="s">
+      <c r="M20" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="N20" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="O20" s="16" t="s">
         <v>148</v>
       </c>
-      <c r="K19" s="5"/>
-    </row>
-    <row r="20" spans="1:11" ht="54">
-      <c r="A20" s="2" t="s">
+      <c r="P20" s="4"/>
+    </row>
+    <row r="21" spans="1:16" ht="54">
+      <c r="A21" s="20">
+        <v>20</v>
+      </c>
+      <c r="B21" s="20" t="s">
         <v>149</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="C21" s="23" t="s">
         <v>150</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="D21" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="E21" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="E20" s="9" t="s">
+      <c r="F21" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="F20" s="9" t="s">
+      <c r="G21" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="G20" s="9" t="s">
+      <c r="H21" s="27" t="s">
+        <v>255</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="H20" s="9" t="s">
+      <c r="L21" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="I20" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="J20" s="18" t="s">
+      <c r="M21" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="N21" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="O21" s="15" t="s">
         <v>155</v>
       </c>
-      <c r="K20" s="5"/>
-    </row>
-    <row r="21" spans="1:11" ht="43.2">
-      <c r="A21" s="2" t="s">
+      <c r="P21" s="4"/>
+    </row>
+    <row r="22" spans="1:16" ht="36">
+      <c r="A22" s="20">
+        <v>21</v>
+      </c>
+      <c r="B22" s="20" t="s">
         <v>156</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="C22" s="23" t="s">
         <v>157</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="D22" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="D21" s="9" t="s">
+      <c r="E22" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="E21" s="9" t="s">
+      <c r="F22" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="F21" s="9" t="s">
+      <c r="G22" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="G21" s="9" t="s">
+      <c r="H22" s="27" t="s">
+        <v>255</v>
+      </c>
+      <c r="I22" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="H21" s="9" t="s">
+      <c r="L22" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="I21" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="J21" s="18" t="s">
+      <c r="M22" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="N22" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="O22" s="15" t="s">
         <v>162</v>
       </c>
-      <c r="K21" s="5"/>
-    </row>
-    <row r="22" spans="1:11" ht="54">
-      <c r="A22" s="2" t="s">
+      <c r="P22" s="4"/>
+    </row>
+    <row r="23" spans="1:16" ht="54">
+      <c r="A23" s="20">
+        <v>22</v>
+      </c>
+      <c r="B23" s="20" t="s">
         <v>163</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="C23" s="23" t="s">
         <v>164</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="D23" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="D22" s="9" t="s">
+      <c r="E23" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="E22" s="9" t="s">
+      <c r="F23" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9" t="s">
+      <c r="G23" s="7"/>
+      <c r="H23" s="27" t="s">
+        <v>255</v>
+      </c>
+      <c r="I23" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="H22" s="9" t="s">
+      <c r="L23" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="I22" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="J22" s="19" t="s">
+      <c r="M23" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="N23" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="O23" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="K22" s="5"/>
-    </row>
-    <row r="23" spans="1:11" ht="90">
-      <c r="A23" s="2" t="s">
+      <c r="P23" s="4"/>
+    </row>
+    <row r="24" spans="1:16" ht="90">
+      <c r="A24" s="20">
+        <v>23</v>
+      </c>
+      <c r="B24" s="20" t="s">
         <v>170</v>
       </c>
-      <c r="B23" s="2">
+      <c r="C24" s="23">
         <v>13.6</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="D24" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="E24" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="F24" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="F23" s="4" t="s">
+      <c r="G24" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G23" s="4" t="s">
+      <c r="H24" s="27" t="s">
+        <v>255</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="K24" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="H23" s="4" t="s">
+      <c r="L24" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="I23" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J23" s="18" t="s">
+      <c r="M24" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="N24" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O24" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="K23" s="7"/>
-    </row>
-    <row r="24" spans="1:11" ht="54">
-      <c r="A24" s="2" t="s">
+      <c r="P24" s="5"/>
+    </row>
+    <row r="25" spans="1:16" ht="54">
+      <c r="A25" s="20">
+        <v>24</v>
+      </c>
+      <c r="B25" s="20" t="s">
         <v>171</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="C25" s="23" t="s">
         <v>172</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="D25" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="E25" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="E24" s="4" t="s">
+      <c r="F25" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="F24" s="4" t="s">
+      <c r="G25" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="G24" s="4" t="s">
+      <c r="H25" s="27" t="s">
+        <v>255</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="K25" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="H24" s="4" t="s">
+      <c r="L25" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="I24" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J24" s="19" t="s">
+      <c r="M25" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="N25" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O25" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="K24" s="7"/>
-    </row>
-    <row r="25" spans="1:11" ht="54">
-      <c r="A25" s="2" t="s">
+      <c r="P25" s="5"/>
+    </row>
+    <row r="26" spans="1:16" ht="54">
+      <c r="A26" s="20">
+        <v>25</v>
+      </c>
+      <c r="B26" s="20" t="s">
         <v>173</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="C26" s="23" t="s">
         <v>174</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="D26" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="E26" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="E25" s="4" t="s">
+      <c r="F26" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="F25" s="4" t="s">
+      <c r="G26" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="G25" s="4" t="s">
+      <c r="H26" s="27" t="s">
+        <v>255</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="K26" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="H25" s="4" t="s">
+      <c r="L26" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="I25" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J25" s="19" t="s">
+      <c r="M26" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="N26" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O26" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="K25" s="7"/>
-    </row>
-    <row r="26" spans="1:11" ht="108">
-      <c r="A26" s="2" t="s">
+      <c r="P26" s="5"/>
+    </row>
+    <row r="27" spans="1:16" ht="108">
+      <c r="A27" s="20">
+        <v>26</v>
+      </c>
+      <c r="B27" s="20" t="s">
         <v>175</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="C27" s="23" t="s">
         <v>176</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="D27" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="E27" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="E26" s="4" t="s">
+      <c r="F27" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="F26" s="4" t="s">
+      <c r="G27" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="G26" s="4" t="s">
+      <c r="H27" s="27" t="s">
+        <v>255</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="K27" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="H26" s="4" t="s">
+      <c r="L27" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="I26" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J26" s="8" t="s">
+      <c r="M27" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="N27" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O27" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="K26" s="7"/>
-    </row>
-    <row r="27" spans="1:11" ht="72">
-      <c r="A27" s="2" t="s">
+      <c r="P27" s="5"/>
+    </row>
+    <row r="28" spans="1:16" ht="72">
+      <c r="A28" s="20">
+        <v>27</v>
+      </c>
+      <c r="B28" s="20" t="s">
         <v>177</v>
       </c>
-      <c r="B27" s="2">
+      <c r="C28" s="23">
         <v>14.1</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="D28" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="E28" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="E27" s="4" t="s">
+      <c r="F28" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="F27" s="4" t="s">
+      <c r="G28" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G27" s="4" t="s">
+      <c r="H28" s="27" t="s">
+        <v>255</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="K28" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="H27" s="4" t="s">
+      <c r="L28" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="I27" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J27" s="18" t="s">
+      <c r="M28" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="N28" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O28" s="15" t="s">
         <v>183</v>
       </c>
-      <c r="K27" s="7"/>
-    </row>
-    <row r="28" spans="1:11" ht="90">
-      <c r="A28" s="2" t="s">
+      <c r="P28" s="5"/>
+    </row>
+    <row r="29" spans="1:16" ht="90">
+      <c r="A29" s="20">
+        <v>28</v>
+      </c>
+      <c r="B29" s="20" t="s">
         <v>184</v>
       </c>
-      <c r="B28" s="2">
+      <c r="C29" s="23">
         <v>14.2</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="D29" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="E29" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="E28" s="4" t="s">
+      <c r="F29" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="F28" s="4" t="s">
+      <c r="G29" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G28" s="4" t="s">
+      <c r="H29" s="27" t="s">
+        <v>255</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="K29" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="H28" s="4" t="s">
+      <c r="L29" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="I28" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J28" s="18" t="s">
+      <c r="M29" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="N29" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O29" s="15" t="s">
         <v>188</v>
       </c>
-      <c r="K28" s="5"/>
-    </row>
-    <row r="29" spans="1:11" ht="72">
-      <c r="A29" s="2" t="s">
+      <c r="P29" s="4"/>
+    </row>
+    <row r="30" spans="1:16" ht="72">
+      <c r="A30" s="20">
+        <v>29</v>
+      </c>
+      <c r="B30" s="20" t="s">
         <v>189</v>
       </c>
-      <c r="B29" s="2">
+      <c r="C30" s="23">
         <v>14.3</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="D30" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="E30" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="E29" s="4" t="s">
+      <c r="F30" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="F29" s="4" t="s">
+      <c r="G30" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G29" s="4" t="s">
+      <c r="H30" s="27" t="s">
+        <v>255</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="K30" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="H29" s="4" t="s">
+      <c r="L30" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="I29" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J29" s="18" t="s">
+      <c r="M30" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="N30" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O30" s="15" t="s">
         <v>194</v>
       </c>
-      <c r="K29" s="5"/>
-    </row>
-    <row r="30" spans="1:11" ht="72">
-      <c r="A30" s="2" t="s">
+      <c r="P30" s="4"/>
+    </row>
+    <row r="31" spans="1:16" ht="72">
+      <c r="A31" s="20">
+        <v>30</v>
+      </c>
+      <c r="B31" s="20" t="s">
         <v>195</v>
       </c>
-      <c r="B30" s="2">
+      <c r="C31" s="23">
         <v>14.4</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="D31" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="E31" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="E30" s="4" t="s">
+      <c r="F31" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="F30" s="4" t="s">
+      <c r="G31" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G30" s="4" t="s">
+      <c r="H31" s="27" t="s">
+        <v>255</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="J31" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="K31" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="H30" s="4" t="s">
+      <c r="L31" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="I30" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J30" s="18" t="s">
+      <c r="M31" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="N31" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O31" s="15" t="s">
         <v>200</v>
       </c>
-      <c r="K30" s="5"/>
-    </row>
-    <row r="31" spans="1:11" ht="72">
-      <c r="A31" s="2" t="s">
+      <c r="P31" s="4"/>
+    </row>
+    <row r="32" spans="1:16" ht="72">
+      <c r="A32" s="20">
+        <v>31</v>
+      </c>
+      <c r="B32" s="20" t="s">
         <v>201</v>
       </c>
-      <c r="B31" s="2">
+      <c r="C32" s="23">
         <v>15.1</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="D32" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="E32" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="E31" s="4" t="s">
+      <c r="F32" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="F31" s="4" t="s">
+      <c r="G32" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G31" s="4" t="s">
+      <c r="H32" s="27" t="s">
+        <v>255</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="K32" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="H31" s="4" t="s">
+      <c r="L32" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="I31" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J31" s="18" t="s">
+      <c r="M32" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="N32" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O32" s="15" t="s">
         <v>205</v>
       </c>
-      <c r="K31" s="5"/>
-    </row>
-    <row r="32" spans="1:11" ht="72">
-      <c r="A32" s="2" t="s">
+      <c r="P32" s="4"/>
+    </row>
+    <row r="33" spans="1:16" ht="72">
+      <c r="A33" s="20">
+        <v>32</v>
+      </c>
+      <c r="B33" s="20" t="s">
         <v>206</v>
       </c>
-      <c r="B32" s="2">
+      <c r="C33" s="23">
         <v>15.2</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="D33" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="D32" s="4" t="s">
+      <c r="E33" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="E32" s="4" t="s">
+      <c r="F33" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="F32" s="4" t="s">
+      <c r="G33" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G32" s="4" t="s">
+      <c r="H33" s="27" t="s">
+        <v>255</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="K33" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="H32" s="4" t="s">
+      <c r="L33" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="I32" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J32" s="18" t="s">
+      <c r="M33" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="N33" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O33" s="15" t="s">
         <v>211</v>
       </c>
-      <c r="K32" s="5"/>
-    </row>
-    <row r="33" spans="1:11" ht="72">
-      <c r="A33" s="2" t="s">
+      <c r="P33" s="4"/>
+    </row>
+    <row r="34" spans="1:16" ht="72">
+      <c r="A34" s="20">
+        <v>33</v>
+      </c>
+      <c r="B34" s="20" t="s">
         <v>212</v>
       </c>
-      <c r="B33" s="2">
+      <c r="C34" s="23">
         <v>15.3</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="D34" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="E34" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="E33" s="4" t="s">
+      <c r="F34" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="F33" s="4" t="s">
+      <c r="G34" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G33" s="4" t="s">
+      <c r="H34" s="27" t="s">
+        <v>255</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="J34" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="K34" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="H33" s="4" t="s">
+      <c r="L34" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="I33" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J33" s="18" t="s">
+      <c r="M34" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="N34" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O34" s="15" t="s">
         <v>214</v>
       </c>
-      <c r="K33" s="5"/>
-    </row>
-    <row r="34" spans="1:11" ht="108">
-      <c r="A34" s="2" t="s">
+      <c r="P34" s="4"/>
+    </row>
+    <row r="35" spans="1:16" ht="108">
+      <c r="A35" s="20">
+        <v>34</v>
+      </c>
+      <c r="B35" s="20" t="s">
         <v>215</v>
       </c>
-      <c r="B34" s="2">
+      <c r="C35" s="23">
         <v>17</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="D35" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="D34" s="4" t="s">
+      <c r="E35" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="E34" s="4" t="s">
+      <c r="F35" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="F34" s="4" t="s">
+      <c r="G35" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G34" s="4" t="s">
+      <c r="H35" s="27" t="s">
+        <v>255</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="K35" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="H34" s="4" t="s">
+      <c r="L35" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="I34" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J34" s="11" t="s">
+      <c r="M35" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="N35" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O35" s="9" t="s">
         <v>221</v>
       </c>
-      <c r="K34" s="7"/>
-    </row>
-    <row r="35" spans="1:11" ht="35.4" customHeight="1">
-      <c r="A35" s="2" t="s">
+      <c r="P35" s="5"/>
+    </row>
+    <row r="36" spans="1:16" ht="36">
+      <c r="A36" s="20">
+        <v>35</v>
+      </c>
+      <c r="B36" s="20" t="s">
         <v>222</v>
       </c>
-      <c r="B35" s="2">
+      <c r="C36" s="23">
         <v>17.3</v>
       </c>
-      <c r="C35" s="13" t="s">
+      <c r="D36" s="11" t="s">
         <v>223</v>
       </c>
-      <c r="D35" s="13" t="s">
+      <c r="E36" s="11" t="s">
         <v>224</v>
       </c>
-      <c r="E35" s="13" t="s">
+      <c r="F36" s="11" t="s">
         <v>225</v>
       </c>
-      <c r="F35" s="13">
+      <c r="G36" s="11">
         <v>12345</v>
       </c>
-      <c r="G35" s="13" t="s">
+      <c r="H36" s="27" t="s">
+        <v>255</v>
+      </c>
+      <c r="I36" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="J36" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="K36" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="H35" s="13" t="s">
+      <c r="L36" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="I35" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="J35" s="21" t="s">
+      <c r="M36" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="N36" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="O36" s="18" t="s">
         <v>228</v>
       </c>
-      <c r="K35" s="14"/>
-    </row>
-    <row r="36" spans="1:11" ht="35.4" customHeight="1">
-      <c r="A36" s="2" t="s">
+      <c r="P36" s="12"/>
+    </row>
+    <row r="37" spans="1:16" ht="36">
+      <c r="A37" s="20">
+        <v>36</v>
+      </c>
+      <c r="B37" s="20" t="s">
         <v>229</v>
       </c>
-      <c r="B36" s="15">
+      <c r="C37" s="24">
         <v>17.600000000000001</v>
       </c>
-      <c r="C36" s="13" t="s">
+      <c r="D37" s="11" t="s">
         <v>230</v>
       </c>
-      <c r="D36" s="13" t="s">
+      <c r="E37" s="11" t="s">
         <v>224</v>
       </c>
-      <c r="E36" s="13" t="s">
+      <c r="F37" s="11" t="s">
         <v>231</v>
       </c>
-      <c r="F36" s="16" t="s">
+      <c r="G37" s="13" t="s">
         <v>232</v>
       </c>
-      <c r="G36" s="13" t="s">
+      <c r="H37" s="27" t="s">
+        <v>255</v>
+      </c>
+      <c r="I37" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="J37" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="K37" s="11" t="s">
         <v>233</v>
       </c>
-      <c r="H36" s="13" t="s">
+      <c r="L37" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="I36" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="J36" s="21" t="s">
+      <c r="M37" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="N37" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="O37" s="18" t="s">
         <v>234</v>
       </c>
-      <c r="K36" s="14"/>
-    </row>
-    <row r="37" spans="1:11" ht="35.4" customHeight="1">
-      <c r="A37" s="2" t="s">
+      <c r="P37" s="12"/>
+    </row>
+    <row r="38" spans="1:16" ht="36">
+      <c r="A38" s="20">
+        <v>37</v>
+      </c>
+      <c r="B38" s="20" t="s">
         <v>235</v>
       </c>
-      <c r="B37" s="2">
+      <c r="C38" s="23">
         <v>17.899999999999999</v>
       </c>
-      <c r="C37" s="13" t="s">
+      <c r="D38" s="11" t="s">
         <v>236</v>
       </c>
-      <c r="D37" s="13" t="s">
+      <c r="E38" s="11" t="s">
         <v>224</v>
       </c>
-      <c r="E37" s="13" t="s">
+      <c r="F38" s="11" t="s">
         <v>237</v>
       </c>
-      <c r="F37" s="13" t="s">
+      <c r="G38" s="11" t="s">
         <v>238</v>
       </c>
-      <c r="G37" s="13" t="s">
+      <c r="H38" s="27" t="s">
+        <v>255</v>
+      </c>
+      <c r="I38" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="J38" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="K38" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="H37" s="13" t="s">
+      <c r="L38" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="I37" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="J37" s="21" t="s">
+      <c r="M38" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="N38" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="O38" s="18" t="s">
         <v>240</v>
       </c>
-      <c r="K37" s="14"/>
-    </row>
-    <row r="38" spans="1:11" ht="88.8" customHeight="1">
-      <c r="A38" s="2" t="s">
+      <c r="P38" s="12"/>
+    </row>
+    <row r="39" spans="1:16" ht="126">
+      <c r="A39" s="20">
+        <v>38</v>
+      </c>
+      <c r="B39" s="20" t="s">
         <v>241</v>
       </c>
-      <c r="B38" s="2">
+      <c r="C39" s="23">
         <v>19</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="D39" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="F39" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="D38" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="E38" s="3" t="s">
+      <c r="G39" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H39" s="27" t="s">
+        <v>255</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="K39" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="F38" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G38" s="4" t="s">
+      <c r="L39" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="H38" s="4" t="s">
+      <c r="M39" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="N39" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O39" s="9" t="s">
         <v>245</v>
       </c>
-      <c r="I38" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J38" s="11" t="s">
-        <v>246</v>
-      </c>
-      <c r="K38" s="5"/>
-    </row>
-    <row r="39" spans="1:11">
-      <c r="A39" s="5"/>
-      <c r="B39" s="5"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="5"/>
-      <c r="H39" s="5"/>
-      <c r="I39" s="5"/>
-      <c r="J39" s="22"/>
-      <c r="K39" s="5"/>
-    </row>
-    <row r="40" spans="1:11">
-      <c r="A40" s="5"/>
-      <c r="B40" s="5"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="5"/>
-      <c r="F40" s="5"/>
-      <c r="G40" s="5"/>
-      <c r="H40" s="5"/>
-      <c r="I40" s="5"/>
-      <c r="J40" s="22"/>
-      <c r="K40" s="5"/>
-    </row>
-    <row r="41" spans="1:11">
-      <c r="A41" s="5"/>
-      <c r="B41" s="5"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="5"/>
-      <c r="H41" s="5"/>
-      <c r="I41" s="5"/>
-      <c r="J41" s="22"/>
-      <c r="K41" s="5"/>
-    </row>
-    <row r="42" spans="1:11">
-      <c r="A42" s="5"/>
-      <c r="B42" s="5"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="5"/>
-      <c r="E42" s="5"/>
-      <c r="F42" s="5"/>
-      <c r="G42" s="5"/>
-      <c r="H42" s="5"/>
-      <c r="I42" s="5"/>
-      <c r="J42" s="22"/>
-      <c r="K42" s="5"/>
-    </row>
-    <row r="43" spans="1:11">
-      <c r="A43" s="5"/>
-      <c r="B43" s="5"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="5"/>
-      <c r="E43" s="5"/>
-      <c r="F43" s="5"/>
-      <c r="G43" s="5"/>
-      <c r="H43" s="5"/>
-      <c r="I43" s="5"/>
-      <c r="J43" s="22"/>
-      <c r="K43" s="5"/>
-    </row>
-    <row r="44" spans="1:11">
-      <c r="A44" s="5"/>
-      <c r="B44" s="5"/>
-      <c r="C44" s="5"/>
-      <c r="D44" s="5"/>
-      <c r="E44" s="5"/>
-      <c r="F44" s="5"/>
-      <c r="G44" s="5"/>
-      <c r="H44" s="5"/>
-      <c r="I44" s="5"/>
-      <c r="J44" s="22"/>
-      <c r="K44" s="5"/>
+      <c r="P39" s="4"/>
+    </row>
+    <row r="40" spans="1:16" ht="18">
+      <c r="A40" s="21"/>
+      <c r="B40" s="21"/>
+      <c r="C40" s="25"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="28"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="4"/>
+      <c r="K40" s="4"/>
+      <c r="L40" s="4"/>
+      <c r="M40" s="4"/>
+      <c r="N40" s="4"/>
+      <c r="O40" s="4"/>
+      <c r="P40" s="4"/>
+    </row>
+    <row r="41" spans="1:16" ht="18">
+      <c r="A41" s="21"/>
+      <c r="B41" s="21"/>
+      <c r="C41" s="25"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="28"/>
+      <c r="I41" s="4"/>
+      <c r="J41" s="4"/>
+      <c r="K41" s="4"/>
+      <c r="L41" s="4"/>
+      <c r="M41" s="4"/>
+      <c r="N41" s="4"/>
+      <c r="O41" s="4"/>
+      <c r="P41" s="4"/>
+    </row>
+    <row r="42" spans="1:16" ht="18">
+      <c r="A42" s="21"/>
+      <c r="B42" s="21"/>
+      <c r="C42" s="25"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="28"/>
+      <c r="I42" s="4"/>
+      <c r="J42" s="4"/>
+      <c r="K42" s="4"/>
+      <c r="L42" s="4"/>
+      <c r="M42" s="4"/>
+      <c r="N42" s="4"/>
+      <c r="O42" s="4"/>
+      <c r="P42" s="4"/>
+    </row>
+    <row r="43" spans="1:16" ht="18">
+      <c r="A43" s="21"/>
+      <c r="B43" s="21"/>
+      <c r="C43" s="25"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="28"/>
+      <c r="I43" s="4"/>
+      <c r="J43" s="4"/>
+      <c r="K43" s="4"/>
+      <c r="L43" s="4"/>
+      <c r="M43" s="4"/>
+      <c r="N43" s="4"/>
+      <c r="O43" s="4"/>
+      <c r="P43" s="4"/>
+    </row>
+    <row r="44" spans="1:16" ht="18">
+      <c r="A44" s="21"/>
+      <c r="B44" s="21"/>
+      <c r="C44" s="25"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="28"/>
+      <c r="I44" s="4"/>
+      <c r="J44" s="4"/>
+      <c r="K44" s="4"/>
+      <c r="L44" s="4"/>
+      <c r="M44" s="4"/>
+      <c r="N44" s="4"/>
+      <c r="O44" s="4"/>
+      <c r="P44" s="4"/>
+    </row>
+    <row r="45" spans="1:16" ht="18">
+      <c r="A45" s="21"/>
+      <c r="B45" s="21"/>
+      <c r="C45" s="25"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="28"/>
+      <c r="I45" s="4"/>
+      <c r="J45" s="4"/>
+      <c r="K45" s="4"/>
+      <c r="L45" s="4"/>
+      <c r="M45" s="4"/>
+      <c r="N45" s="4"/>
+      <c r="O45" s="4"/>
+      <c r="P45" s="4"/>
+    </row>
+    <row r="46" spans="1:16" ht="18">
+      <c r="A46" s="21"/>
+      <c r="B46" s="21"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="J2" r:id="rId1" xr:uid="{3305AA16-632F-4D6C-8B0F-806F8FCB8897}"/>
-    <hyperlink ref="J3" r:id="rId2" xr:uid="{257A8718-8985-4844-B95D-F4AA2E58A205}"/>
-    <hyperlink ref="J4" r:id="rId3" xr:uid="{CDF78B12-E685-4E95-9488-8007DF11C547}"/>
-    <hyperlink ref="J5" r:id="rId4" xr:uid="{E7EC5F8F-ACFF-41A1-B8E9-17010757ADF2}"/>
-    <hyperlink ref="J7" r:id="rId5" xr:uid="{F62A3E28-7BE6-4B90-9BA3-4E5385A1C1CA}"/>
-    <hyperlink ref="J9" r:id="rId6" xr:uid="{4F04239F-D24C-4673-BF3F-2DE80892CAB5}"/>
-    <hyperlink ref="J10" r:id="rId7" xr:uid="{F7806217-A56F-4FDE-B8CB-6F9DCDDCBD37}"/>
-    <hyperlink ref="J11" r:id="rId8" xr:uid="{5E0B2508-01BB-4E80-8A67-B52589CEF034}"/>
-    <hyperlink ref="J12" r:id="rId9" xr:uid="{FA6E7C48-9457-4589-B277-BD6A4B881D18}"/>
-    <hyperlink ref="J13" r:id="rId10" xr:uid="{07F978C4-A33E-4F10-A76C-BBB785503DF0}"/>
-    <hyperlink ref="J15" r:id="rId11" xr:uid="{D7908F93-480B-49C1-82D9-59967D4C377D}"/>
-    <hyperlink ref="J26" r:id="rId12" xr:uid="{783733DA-8013-4848-BCB7-2CF5790CF967}"/>
-    <hyperlink ref="J23" r:id="rId13" xr:uid="{44763865-A5DE-4C71-990C-9408D7D4C305}"/>
-    <hyperlink ref="J24" r:id="rId14" xr:uid="{45274EAC-D7D7-4B8C-9CC0-DDD5DDC17F6B}"/>
-    <hyperlink ref="J25" r:id="rId15" xr:uid="{C1078A44-876F-4E3D-AF3D-B0F0C7ED81C5}"/>
-    <hyperlink ref="J6" r:id="rId16" xr:uid="{1AF14359-16EC-480C-9E06-98BCBE5A5ABF}"/>
-    <hyperlink ref="J16" r:id="rId17" xr:uid="{B024848B-DA73-4535-BB1D-3EDE1C99CFEB}"/>
-    <hyperlink ref="J17" r:id="rId18" xr:uid="{D97F55DF-FF93-4FB1-AB8D-BF039EC9CD28}"/>
-    <hyperlink ref="J18" r:id="rId19" xr:uid="{3C3367A9-E32F-4267-A0B0-4AAE749941CD}"/>
-    <hyperlink ref="J19" r:id="rId20" xr:uid="{E1292D84-D148-441F-A3F2-CAEF6FEA28AC}"/>
-    <hyperlink ref="J20" r:id="rId21" xr:uid="{4F3C55B4-309E-454E-AAB7-F5AA2F92B3C3}"/>
-    <hyperlink ref="J21" r:id="rId22" xr:uid="{CF74B4C5-B579-40A0-827A-358969AB0857}"/>
-    <hyperlink ref="J22" r:id="rId23" xr:uid="{3CB22B61-FAD5-410C-8E06-6536E855E53E}"/>
-    <hyperlink ref="J27" r:id="rId24" xr:uid="{E137DA4C-5CFF-47AE-9839-3629CB6F4E98}"/>
-    <hyperlink ref="J28" r:id="rId25" xr:uid="{15C68952-5426-4F53-A9C6-4C8E6F7014A9}"/>
-    <hyperlink ref="J29" r:id="rId26" xr:uid="{B45A5A56-70B5-4E02-9B59-BD04DF2C9EA8}"/>
-    <hyperlink ref="J30" r:id="rId27" xr:uid="{39F10E55-1C24-477F-877A-5C3B79AC87C3}"/>
-    <hyperlink ref="J31" r:id="rId28" xr:uid="{71762623-2C13-4DE4-8C9B-1296869EF8EA}"/>
-    <hyperlink ref="J32" r:id="rId29" xr:uid="{2BFAF075-61C6-461D-BFFA-264F8AD6D3AD}"/>
-    <hyperlink ref="J33" r:id="rId30" xr:uid="{BEE1C546-D9F7-4886-8326-E841DC03CB69}"/>
-    <hyperlink ref="J34" r:id="rId31" xr:uid="{E717FA6D-B621-4D64-B609-79B722395B56}"/>
-    <hyperlink ref="J35" r:id="rId32" xr:uid="{26FDD7A7-AB7E-4D23-BE0C-4B5013A0D7D9}"/>
-    <hyperlink ref="F36" r:id="rId33" display="mailto:john@.com" xr:uid="{64CD87C3-1C11-45C7-859B-18E7C9AD15A6}"/>
-    <hyperlink ref="J36" r:id="rId34" xr:uid="{7357EE43-07AD-4949-ABF4-7D06EC31FB11}"/>
-    <hyperlink ref="J37" r:id="rId35" xr:uid="{ADE52015-E077-4BF7-9C01-7517808701F9}"/>
-    <hyperlink ref="J38" r:id="rId36" xr:uid="{8157EBE2-9859-4613-815D-79E9D092EE44}"/>
-    <hyperlink ref="J8" r:id="rId37" xr:uid="{411FB7C1-515C-42AB-B2BF-8DFE6A3B4C79}"/>
+    <hyperlink ref="O2" r:id="rId1" xr:uid="{3305AA16-632F-4D6C-8B0F-806F8FCB8897}"/>
+    <hyperlink ref="O3" r:id="rId2" xr:uid="{257A8718-8985-4844-B95D-F4AA2E58A205}"/>
+    <hyperlink ref="O4" r:id="rId3" xr:uid="{CDF78B12-E685-4E95-9488-8007DF11C547}"/>
+    <hyperlink ref="O5" r:id="rId4" xr:uid="{E7EC5F8F-ACFF-41A1-B8E9-17010757ADF2}"/>
+    <hyperlink ref="O8" r:id="rId5" xr:uid="{F62A3E28-7BE6-4B90-9BA3-4E5385A1C1CA}"/>
+    <hyperlink ref="O10" r:id="rId6" xr:uid="{4F04239F-D24C-4673-BF3F-2DE80892CAB5}"/>
+    <hyperlink ref="O11" r:id="rId7" xr:uid="{F7806217-A56F-4FDE-B8CB-6F9DCDDCBD37}"/>
+    <hyperlink ref="O12" r:id="rId8" xr:uid="{5E0B2508-01BB-4E80-8A67-B52589CEF034}"/>
+    <hyperlink ref="O13" r:id="rId9" xr:uid="{FA6E7C48-9457-4589-B277-BD6A4B881D18}"/>
+    <hyperlink ref="O14" r:id="rId10" xr:uid="{07F978C4-A33E-4F10-A76C-BBB785503DF0}"/>
+    <hyperlink ref="O16" r:id="rId11" xr:uid="{D7908F93-480B-49C1-82D9-59967D4C377D}"/>
+    <hyperlink ref="O27" r:id="rId12" xr:uid="{783733DA-8013-4848-BCB7-2CF5790CF967}"/>
+    <hyperlink ref="O24" r:id="rId13" xr:uid="{44763865-A5DE-4C71-990C-9408D7D4C305}"/>
+    <hyperlink ref="O25" r:id="rId14" xr:uid="{45274EAC-D7D7-4B8C-9CC0-DDD5DDC17F6B}"/>
+    <hyperlink ref="O26" r:id="rId15" xr:uid="{C1078A44-876F-4E3D-AF3D-B0F0C7ED81C5}"/>
+    <hyperlink ref="O6" r:id="rId16" xr:uid="{1AF14359-16EC-480C-9E06-98BCBE5A5ABF}"/>
+    <hyperlink ref="O17" r:id="rId17" xr:uid="{B024848B-DA73-4535-BB1D-3EDE1C99CFEB}"/>
+    <hyperlink ref="O18" r:id="rId18" xr:uid="{D97F55DF-FF93-4FB1-AB8D-BF039EC9CD28}"/>
+    <hyperlink ref="O19" r:id="rId19" xr:uid="{3C3367A9-E32F-4267-A0B0-4AAE749941CD}"/>
+    <hyperlink ref="O20" r:id="rId20" xr:uid="{E1292D84-D148-441F-A3F2-CAEF6FEA28AC}"/>
+    <hyperlink ref="O21" r:id="rId21" xr:uid="{4F3C55B4-309E-454E-AAB7-F5AA2F92B3C3}"/>
+    <hyperlink ref="O22" r:id="rId22" xr:uid="{CF74B4C5-B579-40A0-827A-358969AB0857}"/>
+    <hyperlink ref="O23" r:id="rId23" xr:uid="{3CB22B61-FAD5-410C-8E06-6536E855E53E}"/>
+    <hyperlink ref="O28" r:id="rId24" xr:uid="{E137DA4C-5CFF-47AE-9839-3629CB6F4E98}"/>
+    <hyperlink ref="O29" r:id="rId25" xr:uid="{15C68952-5426-4F53-A9C6-4C8E6F7014A9}"/>
+    <hyperlink ref="O30" r:id="rId26" xr:uid="{B45A5A56-70B5-4E02-9B59-BD04DF2C9EA8}"/>
+    <hyperlink ref="O31" r:id="rId27" xr:uid="{39F10E55-1C24-477F-877A-5C3B79AC87C3}"/>
+    <hyperlink ref="O32" r:id="rId28" xr:uid="{71762623-2C13-4DE4-8C9B-1296869EF8EA}"/>
+    <hyperlink ref="O33" r:id="rId29" xr:uid="{2BFAF075-61C6-461D-BFFA-264F8AD6D3AD}"/>
+    <hyperlink ref="O34" r:id="rId30" xr:uid="{BEE1C546-D9F7-4886-8326-E841DC03CB69}"/>
+    <hyperlink ref="O35" r:id="rId31" xr:uid="{E717FA6D-B621-4D64-B609-79B722395B56}"/>
+    <hyperlink ref="O36" r:id="rId32" xr:uid="{26FDD7A7-AB7E-4D23-BE0C-4B5013A0D7D9}"/>
+    <hyperlink ref="G37" r:id="rId33" display="mailto:john@.com" xr:uid="{64CD87C3-1C11-45C7-859B-18E7C9AD15A6}"/>
+    <hyperlink ref="O37" r:id="rId34" xr:uid="{7357EE43-07AD-4949-ABF4-7D06EC31FB11}"/>
+    <hyperlink ref="O38" r:id="rId35" xr:uid="{ADE52015-E077-4BF7-9C01-7517808701F9}"/>
+    <hyperlink ref="O39" r:id="rId36" xr:uid="{8157EBE2-9859-4613-815D-79E9D092EE44}"/>
+    <hyperlink ref="O9" r:id="rId37" xr:uid="{411FB7C1-515C-42AB-B2BF-8DFE6A3B4C79}"/>
   </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{C5620FCC-CC6D-42E0-AB83-955C382588C5}">
+          <x14:formula1>
+            <xm:f>#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>I2:J6</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{97E15CA9-456E-433C-950C-4D1710A85233}">
+          <x14:formula1>
+            <xm:f>Sheet3!$B$3:$B$6</xm:f>
+          </x14:formula1>
+          <xm:sqref>I7:J39</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76167AAF-138B-4C66-BEAD-9025EFABD732}">
+  <dimension ref="B3:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="3" spans="2:2">
+      <c r="B3" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" t="s">
+        <v>265</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>